--- a/data/case1/9/cost_1.xlsx
+++ b/data/case1/9/cost_1.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.82975042818504</v>
+        <v>161.83259152768269</v>
       </c>
       <c r="B1" s="0">
-        <v>4.7405704777806479</v>
+        <v>4.9503224142783964</v>
       </c>
       <c r="C1" s="0">
-        <v>4.6966731898238745</v>
+        <v>4.3215916503587728</v>
       </c>
     </row>
   </sheetData>
